--- a/individual_case_outputs/avey/414.xlsx
+++ b/individual_case_outputs/avey/414.xlsx
@@ -793,7 +793,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>lung cancer</t>
+          <t>frailty</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>emphysema</t>
+          <t>generalized anxiety disorder</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>common cough</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>frailty</t>
+          <t>tuberculosis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -904,11 +904,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>chronic bronchitis</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -937,11 +933,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>tuberculosis</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>liver cirrhosis, unspecified</t>
@@ -961,11 +953,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>generalized anxiety disorder</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
